--- a/test_results/Subject_0.xlsx
+++ b/test_results/Subject_0.xlsx
@@ -14,165 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>Complexity_3</t>
   </si>
   <si>
+    <t>LIVING_ROOM</t>
+  </si>
+  <si>
+    <t>HOA_Bin</t>
+  </si>
+  <si>
+    <t>same_room</t>
+  </si>
+  <si>
+    <t>SG4-SUSAN</t>
+  </si>
+  <si>
+    <t>STV-MARIA</t>
+  </si>
+  <si>
+    <t>S5-DAVID</t>
+  </si>
+  <si>
+    <t>Freeverb</t>
+  </si>
+  <si>
+    <t>SG4-DAVID</t>
+  </si>
+  <si>
+    <t>S5-SUSAN</t>
+  </si>
+  <si>
+    <t>METU</t>
+  </si>
+  <si>
+    <t>302-MARIA</t>
+  </si>
+  <si>
+    <t>032-SUSAN</t>
+  </si>
+  <si>
+    <t>152-DAVID</t>
+  </si>
+  <si>
+    <t>302-SUSAN</t>
+  </si>
+  <si>
+    <t>032-DAVID</t>
+  </si>
+  <si>
+    <t>152-MARIA</t>
+  </si>
+  <si>
+    <t>3D_MARCo</t>
+  </si>
+  <si>
+    <t>+30-DAVID</t>
+  </si>
+  <si>
+    <t>0-SUSAN</t>
+  </si>
+  <si>
+    <t>-90-MARIA</t>
+  </si>
+  <si>
+    <t>-90-ALEX</t>
+  </si>
+  <si>
     <t>AALBORG</t>
   </si>
   <si>
-    <t>HOA_Bin</t>
-  </si>
-  <si>
-    <t>same_room</t>
+    <t>-60-MARIA</t>
+  </si>
+  <si>
+    <t>+30-MARIA</t>
+  </si>
+  <si>
+    <t>0-DAVID</t>
+  </si>
+  <si>
+    <t>-60-SUSAN</t>
+  </si>
+  <si>
+    <t>Complexity_2</t>
+  </si>
+  <si>
+    <t>-90-SUSAN</t>
+  </si>
+  <si>
+    <t>+30-ALEX</t>
+  </si>
+  <si>
+    <t>S5-ALEX</t>
+  </si>
+  <si>
+    <t>302-DAVID</t>
+  </si>
+  <si>
+    <t>032-ALEX</t>
+  </si>
+  <si>
+    <t>032-MARIA</t>
+  </si>
+  <si>
+    <t>Complexity_4</t>
+  </si>
+  <si>
+    <t>-30-MARIA</t>
   </si>
   <si>
     <t>+30-SUSAN</t>
   </si>
   <si>
-    <t>0-DAVID</t>
-  </si>
-  <si>
-    <t>-60-MARIA</t>
-  </si>
-  <si>
-    <t>Freeverb</t>
-  </si>
-  <si>
-    <t>+30-RICHARD</t>
-  </si>
-  <si>
-    <t>0-MARIA</t>
-  </si>
-  <si>
-    <t>-60-DAVID</t>
-  </si>
-  <si>
-    <t>METU</t>
-  </si>
-  <si>
-    <t>302-DAVID</t>
-  </si>
-  <si>
-    <t>032-RICHARD</t>
-  </si>
-  <si>
-    <t>152-MARIA</t>
-  </si>
-  <si>
-    <t>302-MARIA</t>
-  </si>
-  <si>
-    <t>032-DAVID</t>
-  </si>
-  <si>
-    <t>152-RICHARD</t>
-  </si>
-  <si>
-    <t>3D_MARCo</t>
-  </si>
-  <si>
-    <t>0-RICHARD</t>
-  </si>
-  <si>
-    <t>-90-MARIA</t>
-  </si>
-  <si>
-    <t>-90-DAVID</t>
-  </si>
-  <si>
-    <t>LIVING_ROOM</t>
-  </si>
-  <si>
-    <t>SG4-SUSAN</t>
-  </si>
-  <si>
-    <t>STV-MARIA</t>
-  </si>
-  <si>
-    <t>S5-DAVID</t>
-  </si>
-  <si>
-    <t>SG4-RICHARD</t>
+    <t>0-ALEX</t>
+  </si>
+  <si>
+    <t>-30-DAVID</t>
+  </si>
+  <si>
+    <t>SG6-SUSAN</t>
+  </si>
+  <si>
+    <t>SG4-MARIA</t>
+  </si>
+  <si>
+    <t>STV-ALEX</t>
+  </si>
+  <si>
+    <t>SG6-MARIA</t>
+  </si>
+  <si>
+    <t>SG4-ALEX</t>
   </si>
   <si>
     <t>STV-SUSAN</t>
   </si>
   <si>
-    <t>S5-MARIA</t>
-  </si>
-  <si>
-    <t>Complexity_2</t>
-  </si>
-  <si>
-    <t>032-MARIA</t>
-  </si>
-  <si>
-    <t>-60-RICHARD</t>
-  </si>
-  <si>
-    <t>+30-MARIA</t>
-  </si>
-  <si>
-    <t>-90-RICHARD</t>
-  </si>
-  <si>
-    <t>SG4-DAVID</t>
-  </si>
-  <si>
-    <t>Complexity_4</t>
-  </si>
-  <si>
-    <t>+30-DAVID</t>
-  </si>
-  <si>
-    <t>-30-SUSAN</t>
-  </si>
-  <si>
-    <t>-90-SUSAN</t>
-  </si>
-  <si>
-    <t>-30-DAVID</t>
-  </si>
-  <si>
-    <t>302-SUSAN</t>
-  </si>
-  <si>
-    <t>112-MARIA</t>
+    <t>+120-SUSAN</t>
+  </si>
+  <si>
+    <t>-60-ALEX</t>
+  </si>
+  <si>
+    <t>+120-ALEX</t>
+  </si>
+  <si>
+    <t>302-ALEX</t>
   </si>
   <si>
     <t>112-SUSAN</t>
   </si>
   <si>
-    <t>152-DAVID</t>
-  </si>
-  <si>
-    <t>SG6-SUSAN</t>
-  </si>
-  <si>
-    <t>SG4-MARIA</t>
-  </si>
-  <si>
-    <t>STV-DAVID</t>
-  </si>
-  <si>
-    <t>S5-RICHARD</t>
-  </si>
-  <si>
-    <t>SG6-MARIA</t>
-  </si>
-  <si>
-    <t>S5-SUSAN</t>
-  </si>
-  <si>
-    <t>+120-RICHARD</t>
-  </si>
-  <si>
-    <t>0-SUSAN</t>
-  </si>
-  <si>
-    <t>+120-MARIA</t>
+    <t>152-ALEX</t>
   </si>
 </sst>
 </file>
@@ -211,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF800080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,11 +602,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -622,11 +616,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -636,11 +630,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -664,39 +658,39 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -709,8 +703,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -719,22 +713,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -743,58 +737,58 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
+      <c r="A11" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
+      <c r="A12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
+      <c r="E12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -803,18 +797,18 @@
         <v>3</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -822,13 +816,13 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
+      <c r="A17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -842,29 +836,29 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -874,31 +868,31 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
+      <c r="E21" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -906,17 +900,17 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -926,15 +920,15 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="6" t="s">
-        <v>15</v>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -944,11 +938,11 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
+      <c r="E25" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -961,32 +955,32 @@
         <v>3</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
-        <v>13</v>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
+      <c r="A27" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
+      <c r="C27" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="7" t="s">
-        <v>43</v>
+      <c r="E27" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>33</v>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
@@ -995,12 +989,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -1014,7 +1008,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
@@ -1032,49 +1026,49 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
+      <c r="A32" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
+      <c r="C32" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="6" t="s">
-        <v>45</v>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
+      <c r="E33" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="4" t="s">
-        <v>47</v>
+      <c r="E34" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -1097,8 +1091,8 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="7" t="s">
-        <v>34</v>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -1112,41 +1106,41 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="6" t="s">
-        <v>48</v>
+      <c r="E37" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
+      <c r="A38" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="E38" s="4" t="s">
-        <v>26</v>
+      <c r="E38" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>24</v>
+      <c r="A39" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B39" s="2"/>
       <c r="E39" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
-        <v>25</v>
+      <c r="A40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="E40" s="3" t="s">
-        <v>49</v>
+      <c r="E40" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -1156,7 +1150,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -1171,8 +1165,8 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>26</v>
+      <c r="A43" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B43" s="2"/>
       <c r="E43" s="2" t="s">
@@ -1181,34 +1175,34 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>27</v>
+      <c r="A44" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B44" s="2"/>
       <c r="E44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6" t="s">
-        <v>28</v>
+      <c r="A45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="E45" s="6" t="s">
-        <v>32</v>
+      <c r="E45" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="E46" s="4" t="s">
-        <v>51</v>
+      <c r="E46" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -1225,26 +1219,26 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="6" t="s">
-        <v>52</v>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="5:6">
-      <c r="E51" s="3" t="s">
-        <v>4</v>
+      <c r="E51" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="5:6">
       <c r="E52" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="5:6">
-      <c r="E53" s="4" t="s">
-        <v>31</v>
+      <c r="E53" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F53" s="2"/>
     </row>

--- a/test_results/Subject_0.xlsx
+++ b/test_results/Subject_0.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\Main\Reverb_Parameters_Optimization\test_results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D2C90-D29B-45DD-97E8-FF98777F2BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>Complexity_3</t>
   </si>
@@ -167,13 +173,19 @@
   </si>
   <si>
     <t>152-ALEX</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,9 +284,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,17 +302,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +397,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +449,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,674 +642,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="E39" s="7" t="s">
+      <c r="B39" s="1"/>
+      <c r="E39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="E40" s="6" t="s">
+      <c r="B40" s="1"/>
+      <c r="E40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="E41" s="1" t="s">
+      <c r="B41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="E42" s="1" t="s">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="6" t="s">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
+      <c r="B43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="E44" s="5" t="s">
+      <c r="B44" s="1"/>
+      <c r="E44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="E45" s="3" t="s">
+      <c r="B45" s="1"/>
+      <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46" s="6" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="E47" s="7" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="E48" s="1" t="s">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="4" t="s">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="6" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" s="7" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" s="5" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A41:B41"/>
@@ -1270,20 +1403,18 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>